--- a/Material/Budget material.xlsx
+++ b/Material/Budget material.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anu365-my.sharepoint.com/personal/u7409838_anu_edu_au/Documents/GitHub/Thesis/Meetings/Material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noble/Dropbox/1_Research/1_Manuscripts/In_Preparation/pablo/Meetings/Material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9A29A09F-D9D5-4F4A-9D48-9BEE46BB4B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BA642F1-E8CD-1941-A150-0043842799A7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E3C68A-4159-134A-A8D4-7CF76B45B420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2500" windowWidth="27640" windowHeight="16940" xr2:uid="{0DC4E63F-1C96-AF4C-9142-86DCB1DE146D}"/>
+    <workbookView xWindow="56120" yWindow="740" windowWidth="23240" windowHeight="9020" xr2:uid="{0DC4E63F-1C96-AF4C-9142-86DCB1DE146D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -605,13 +604,14 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="5"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="5"/>
     <col min="10" max="10" width="10.83203125" style="5"/>
     <col min="14" max="14" width="10.83203125" style="5"/>
@@ -684,7 +684,7 @@
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="2">
@@ -697,7 +697,7 @@
       <c r="K2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="2">
@@ -1056,6 +1056,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{9F2C03CC-8F45-F349-B0A3-8B01128124DC}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{F68B4A27-8E9D-DB47-8730-4ECECD9B616D}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{861573E0-6B13-294E-836A-C3459D660267}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Material/Budget material.xlsx
+++ b/Material/Budget material.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noble/Dropbox/1_Research/1_Manuscripts/In_Preparation/pablo/Meetings/Material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anu365-my.sharepoint.com/personal/u7409838_anu_edu_au/Documents/GitHub/Thesis/Meetings/Material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E3C68A-4159-134A-A8D4-7CF76B45B420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{33E3C68A-4159-134A-A8D4-7CF76B45B420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDD1DF5E-96B7-074D-AD18-364239917685}"/>
   <bookViews>
-    <workbookView xWindow="56120" yWindow="740" windowWidth="23240" windowHeight="9020" xr2:uid="{0DC4E63F-1C96-AF4C-9142-86DCB1DE146D}"/>
+    <workbookView xWindow="39880" yWindow="1940" windowWidth="28800" windowHeight="17500" xr2:uid="{0DC4E63F-1C96-AF4C-9142-86DCB1DE146D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>Prize 1</t>
   </si>
@@ -194,13 +194,25 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Bought</t>
+  </si>
+  <si>
+    <t>National Storage contacted</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,6 +238,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -261,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -277,12 +296,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -598,13 +625,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF09A5FF-C58D-924E-81B7-194700579C5C}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:F10"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,7 +644,7 @@
     <col min="14" max="14" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -660,8 +687,11 @@
       <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -671,185 +701,197 @@
       <c r="C2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>7</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f>B2*E2</f>
         <v>672</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="2">
         <v>8</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <f>I2*B2</f>
         <v>768</v>
       </c>
       <c r="K2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="2">
         <v>6</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <f>M2*B2</f>
         <v>576</v>
       </c>
+      <c r="O2" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="10">
         <v>2.52</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="11">
         <f>B3*E3</f>
         <v>2.52</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="10">
         <v>4.28</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="11">
         <f>I3*B3</f>
         <v>4.28</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="10">
         <v>4.5</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="11">
         <f>M3*B3</f>
         <v>4.5</v>
       </c>
+      <c r="O3" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="10">
         <v>4.6399999999999997</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="11">
         <f>E4*10</f>
         <v>46.4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="10">
         <v>2</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="11">
         <f>I4*25</f>
         <v>50</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="10">
         <v>4.5</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="11">
         <f>M4*20</f>
         <v>90</v>
       </c>
+      <c r="O4" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="10">
         <v>18.579999999999998</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="11">
         <f>E5*2</f>
         <v>37.159999999999997</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="10">
         <v>1</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="11">
         <f>I5*10</f>
         <v>10</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="10">
         <v>3</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="11">
         <f>M5*5</f>
         <v>15</v>
       </c>
+      <c r="O5" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -865,7 +907,7 @@
       <c r="E6" s="2">
         <v>9.9499999999999993</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f>10*E6</f>
         <v>99.5</v>
       </c>
@@ -878,7 +920,7 @@
       <c r="I6" s="2">
         <v>7.99</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <f>I6*B6</f>
         <v>239.70000000000002</v>
       </c>
@@ -889,12 +931,15 @@
         <v>52</v>
       </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <f>M6*B6</f>
         <v>0</v>
       </c>
+      <c r="O6" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -910,7 +955,7 @@
       <c r="E7" s="2">
         <v>29.85</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f>10*E7</f>
         <v>298.5</v>
       </c>
@@ -923,7 +968,7 @@
       <c r="I7" s="2">
         <v>7.99</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f>I7*B7</f>
         <v>239.70000000000002</v>
       </c>
@@ -934,12 +979,15 @@
         <v>52</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <f>M7*B7</f>
         <v>0</v>
       </c>
+      <c r="O7" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -955,7 +1003,7 @@
       <c r="E8" s="2">
         <v>10.95</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f t="shared" ref="F8:F9" si="0">10*E8</f>
         <v>109.5</v>
       </c>
@@ -968,7 +1016,7 @@
       <c r="I8" s="2">
         <v>7.99</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <f>I8*B8</f>
         <v>239.70000000000002</v>
       </c>
@@ -979,12 +1027,15 @@
         <v>52</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <f>M8*B8</f>
         <v>0</v>
       </c>
+      <c r="O8" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1000,7 +1051,7 @@
       <c r="E9" s="2">
         <v>9.9499999999999993</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>99.5</v>
       </c>
@@ -1013,7 +1064,7 @@
       <c r="I9" s="2">
         <v>7.99</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <f>I9*B9</f>
         <v>239.70000000000002</v>
       </c>
@@ -1024,12 +1075,15 @@
         <v>52</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <f>M9*B9</f>
         <v>0</v>
       </c>
+      <c r="O9" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
